--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13680" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="24960" windowHeight="13680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LSTM Hidden Size" sheetId="1" r:id="rId1"/>
@@ -53,10 +53,10 @@
     <t xml:space="preserve">hidden size </t>
   </si>
   <si>
-    <t>hidden size 1024</t>
+    <t>f</t>
   </si>
   <si>
-    <t>hidden size 512</t>
+    <t>hidden size 667</t>
   </si>
 </sst>
 </file>
@@ -450,11 +450,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2119605648"/>
-        <c:axId val="-2100632688"/>
+        <c:axId val="-2117303504"/>
+        <c:axId val="-2116715184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119605648"/>
+        <c:axId val="-2117303504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100632688"/>
+        <c:crossAx val="-2116715184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -572,7 +572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100632688"/>
+        <c:axId val="-2116715184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45.0"/>
@@ -678,7 +678,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119605648"/>
+        <c:crossAx val="-2117303504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -780,6 +780,1050 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MRR on Dev Set For Various LSTM Pooling Strategies</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM Title Body Pooling'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Title and Body Mean Pooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Title Body Pooling'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM Title Body Pooling'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Title Only Mean Pooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Title Body Pooling'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LSTM Title Body Pooling'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Title Only Last Pooling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'LSTM Title Body Pooling'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2071019520"/>
+        <c:axId val="-2062576768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2071019520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2062576768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2062576768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MRR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2071019520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MRR on Dev Set with Varying CNN Hidden Sizes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNN Hidden Size'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hidden size 256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNN Hidden Size'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.65000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNN Hidden Size'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hidden size 667</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNN Hidden Size'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2082447216"/>
+        <c:axId val="-2060514720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2082447216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2060514720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2060514720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MRR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2082447216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -1034,11 +2078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2098933600"/>
-        <c:axId val="-2099785600"/>
+        <c:axId val="-2116638448"/>
+        <c:axId val="-2116632384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098933600"/>
+        <c:axId val="-2116638448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +2179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099785600"/>
+        <c:crossAx val="-2116632384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1143,7 +2187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099785600"/>
+        <c:axId val="-2116632384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="35.0"/>
@@ -1249,7 +2293,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2098933600"/>
+        <c:crossAx val="-2116638448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1410,6 +2454,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1927,6 +3051,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2478,6 +4634,76 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2777,7 +5003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -2886,7 +5112,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2938,28 +5164,65 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>45.2</v>
+      </c>
+      <c r="C3">
+        <v>43.7</v>
+      </c>
+      <c r="D3">
+        <v>46.1</v>
+      </c>
+      <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>44.8</v>
+      </c>
+      <c r="G3">
+        <v>45.3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="D4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G4">
+        <v>39.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2981,87 +5244,61 @@
       <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>53.058301354599998</v>
+        <v>66.239999999999995</v>
       </c>
       <c r="C2">
-        <v>58.6110178769</v>
+        <v>66.27</v>
       </c>
       <c r="D2">
-        <v>61.473527616799998</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="E2">
-        <v>54.881035282799999</v>
+        <v>69.02</v>
       </c>
       <c r="F2">
-        <v>55.661741202400002</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="G2">
-        <v>59.741346928900001</v>
-      </c>
-      <c r="H2">
-        <v>58.458205953499998</v>
-      </c>
-      <c r="I2">
-        <v>60.1279103862</v>
-      </c>
-      <c r="J2">
-        <v>62.2962839084</v>
+        <v>69.73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>54.156834223700002</v>
+        <v>63.54</v>
       </c>
       <c r="C3">
-        <v>57.263333319899999</v>
+        <v>64.38</v>
       </c>
       <c r="D3">
-        <v>52.681793190100002</v>
+        <v>65.77</v>
       </c>
       <c r="E3">
-        <v>59.378665866799999</v>
+        <v>64.97</v>
       </c>
       <c r="F3">
-        <v>58.367995907699999</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="G3">
-        <v>57.809751403699998</v>
-      </c>
-      <c r="H3">
-        <v>55.397519093</v>
-      </c>
-      <c r="I3">
-        <v>59.032068429299997</v>
-      </c>
-      <c r="J3">
-        <v>58.307604304599998</v>
+        <v>67.98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3069,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
